--- a/simulations/simulation_results_sigma.xlsx
+++ b/simulations/simulation_results_sigma.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
   <si>
     <t xml:space="preserve">molecule</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">hexadecane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethanediol</t>
   </si>
 </sst>
 </file>
@@ -221,18 +224,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F92" activeCellId="0" sqref="F92"/>
+      <selection pane="topLeft" activeCell="A93" activeCellId="0" sqref="A93:H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.03"/>
@@ -2599,6 +2602,136 @@
         <v>0.017599</v>
       </c>
       <c r="G92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>1098.70160000289</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.0670017556982353</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>10.891645852784</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>-2.91548916290948</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>0.035860562864568</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>0.0063534546405688</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>1.59445528032256E-008</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>1049.81880000276</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.0909184498513443</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>14.6899943617406</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>-2.5596599649234</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>0.0131502924804676</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>0.0127764003381877</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>5.8959847056854E-008</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>887.563269996406</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.110990191894607</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>15.1490277649216</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>-1.7021008829898</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>0.00237978001623085</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>0.0069309490734063</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>2.55377466344724E-007</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>721.423209999285</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.125794864879576</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>8.73914352546494</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>-1.16354797084158</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0.0015271013180807</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>0.0011846305374773</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>7.0536092330085E-007</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>9.10498840002035</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.101114383966973</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>0.0304572009796132</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>-0.0326696150566699</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>0.00054064628965705</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>0.00314815990577535</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>0.00013312445836145</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
